--- a/Crawling/music/crawled_data/live_melon/live_melon_20220507_110400.xlsx
+++ b/Crawling/music/crawled_data/live_melon/live_melon_20220507_110400.xlsx
@@ -34,7 +34,7 @@
     <t>앨범</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-05-07</t>
@@ -2465,7 +2465,6 @@
         <v>147</v>
       </c>
       <c r="F72">
-        <f/>
         <v>0</v>
       </c>
     </row>
